--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FEC25D-04CB-5B47-8E1F-5226C91DA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB74883-1695-B846-9CFC-6FD8323D2C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69280" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="68800" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>setting</t>
   </si>
   <si>
-    <t>schedule</t>
-  </si>
-  <si>
     <t>EXPAND</t>
   </si>
   <si>
@@ -225,15 +222,6 @@
   </si>
   <si>
     <t>系统日志</t>
-  </si>
-  <si>
-    <t>a680b92e-2f79-43e1-b37b-3f9705c29199</t>
-  </si>
-  <si>
-    <t>后台任务</t>
-  </si>
-  <si>
-    <t>/system/job</t>
   </si>
   <si>
     <t>5cfdee3b-240a-46b4-ad2f-5d40517d9dd3</t>
@@ -260,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.job</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.system.log</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,18 +403,12 @@
     <t>ee0a6f15-62cf-42fd-b6dd-c1043e232486</t>
   </si>
   <si>
-    <t>8121a655-5a10-4673-a5fa-38bd171deee6</t>
-  </si>
-  <si>
     <t>0d8d516f-429f-421a-a23d-b4b364dad951</t>
   </si>
   <si>
     <t>0dc402f6-5310-45a5-816f-a23c19a7f135</t>
   </si>
   <si>
-    <t>ae5101f9-6ca2-4559-8a59-e100c06c300e</t>
-  </si>
-  <si>
     <t>ee635f66-62f6-4f16-b1ca-7fa1c0ee06b9</t>
   </si>
   <si>
@@ -442,18 +420,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.develop.graphic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.develop.form</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.develop.integration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.develop.workflow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,9 +438,6 @@
     <t>appstore</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
     <t>流程设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -487,18 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接口设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>share-alt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>报表设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -511,19 +466,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/epic/integration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/epic/workflow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/epic/form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/epic/topology</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1065,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1134,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1166,16 +1113,16 @@
         <v>19</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9">
         <v>1005</v>
@@ -1184,26 +1131,26 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9">
         <v>1010</v>
@@ -1212,26 +1159,26 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9">
         <v>1015</v>
@@ -1240,26 +1187,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9">
         <v>1020</v>
@@ -1268,26 +1215,26 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <v>2000</v>
@@ -1296,16 +1243,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="13"/>
     </row>
@@ -1318,7 +1265,7 @@
         <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="16">
         <v>1005</v>
@@ -1327,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1336,20 +1283,20 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
         <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="16">
         <v>1010</v>
@@ -1358,29 +1305,29 @@
         <v>2</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
         <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="16">
         <v>1015</v>
@@ -1389,26 +1336,26 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6">
         <v>6000</v>
@@ -1417,29 +1364,29 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9">
         <v>1005</v>
@@ -1448,261 +1395,262 @@
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B15" s="8" t="str">
-        <f t="shared" ref="B15:B19" si="0">A$13</f>
+        <f t="shared" ref="B15:B17" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E15" s="23">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D16" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E16" s="23">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1020</v>
+        <v>106</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1030</v>
       </c>
       <c r="E17" s="23">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E18" s="23">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E19" s="23">
+        <f>A$18</f>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>144</v>
+        <v>105</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="17" t="str">
+        <f>A$19</f>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="H20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="8" t="str">
-        <f>A$20</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+        <v>85</v>
+      </c>
+      <c r="B21" s="17" t="str">
+        <f>A$19</f>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>107</v>
+        <v>1010</v>
+      </c>
+      <c r="E21" s="25">
+        <v>3</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="17" t="str">
-        <f>A$21</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E22" s="25">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>89</v>
+      <c r="I22" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1710,32 +1658,32 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B23" s="17" t="str">
-        <f>A$21</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
+        <f>A$22</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E23" s="25">
-        <v>3</v>
+        <v>1005</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1743,29 +1691,32 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="B24" s="17" t="str">
+        <f t="shared" ref="B24:B26" si="1">A$22</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1773,32 +1724,32 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" s="17" t="str">
-        <f>A$24</f>
+        <f t="shared" si="1"/>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="9">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1806,135 +1757,36 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B26" s="17" t="str">
-        <f t="shared" ref="B26:B29" si="1">A$24</f>
+        <f t="shared" si="1"/>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="9">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB74883-1695-B846-9CFC-6FD8323D2C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBE8CB-8675-1C43-BB30-0AC2D4E5AD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68800" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -400,9 +400,6 @@
     <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
   </si>
   <si>
-    <t>ee0a6f15-62cf-42fd-b6dd-c1043e232486</t>
-  </si>
-  <si>
     <t>0d8d516f-429f-421a-a23d-b4b364dad951</t>
   </si>
   <si>
@@ -416,10 +413,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.develop.model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.develop.form</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -432,12 +425,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>建模管理</t>
-  </si>
-  <si>
-    <t>appstore</t>
-  </si>
-  <si>
     <t>流程设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -459,10 +446,6 @@
   </si>
   <si>
     <t>area-chart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/epic/modeling</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1012,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1364,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>107</v>
@@ -1382,14 +1365,14 @@
         <v>109</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f>A$13</f>
+        <f t="shared" ref="B14:B16" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D14" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="E14" s="23">
         <v>2</v>
@@ -1398,13 +1381,13 @@
         <v>114</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -1413,29 +1396,29 @@
         <v>110</v>
       </c>
       <c r="B15" s="8" t="str">
-        <f t="shared" ref="B15:B17" si="0">A$13</f>
+        <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E15" s="23">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J15" s="13"/>
     </row>
@@ -1450,8 +1433,8 @@
       <c r="C16" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="9">
-        <v>1020</v>
+      <c r="D16" s="16">
+        <v>1030</v>
       </c>
       <c r="E16" s="23">
         <v>2</v>
@@ -1460,134 +1443,136 @@
         <v>115</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E17" s="23">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>A$17</f>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
+      <c r="D18" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="8" t="str">
+        <v>82</v>
+      </c>
+      <c r="B19" s="17" t="str">
         <f>A$18</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>102</v>
+        <v>1005</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B20" s="17" t="str">
-        <f>A$19</f>
+        <f>A$18</f>
         <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E20" s="25">
         <v>3</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1595,32 +1580,29 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="17" t="str">
-        <f>A$19</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B21" s="17"/>
       <c r="C21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E21" s="25">
-        <v>3</v>
+      <c r="D21" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>88</v>
+        <v>24</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1628,29 +1610,32 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="B22" s="17" t="str">
+        <f>A$21</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
       <c r="C22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1</v>
+      <c r="D22" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1658,32 +1643,32 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="17" t="str">
-        <f>A$22</f>
+        <f t="shared" ref="B23:B25" si="1">A$21</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1691,32 +1676,32 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="17" t="str">
-        <f t="shared" ref="B24:B26" si="1">A$22</f>
+        <f t="shared" si="1"/>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="9">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1724,7 +1709,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B25" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1734,59 +1719,26 @@
         <v>26</v>
       </c>
       <c r="D25" s="9">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBE8CB-8675-1C43-BB30-0AC2D4E5AD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAE5D9B-5787-994C-A96F-6C96709915EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -403,9 +403,6 @@
     <t>0d8d516f-429f-421a-a23d-b4b364dad951</t>
   </si>
   <si>
-    <t>0dc402f6-5310-45a5-816f-a23c19a7f135</t>
-  </si>
-  <si>
     <t>ee635f66-62f6-4f16-b1ca-7fa1c0ee06b9</t>
   </si>
   <si>
@@ -413,10 +410,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.develop.form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.develop.workflow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -433,14 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表单设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>报表设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -450,10 +435,6 @@
   </si>
   <si>
     <t>/epic/workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/epic/form</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -995,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L25"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1347,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>107</v>
@@ -1365,7 +1346,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f t="shared" ref="B14:B16" si="0">A$13</f>
+        <f t="shared" ref="B14:B15" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1378,16 +1359,16 @@
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -1402,8 +1383,8 @@
       <c r="C15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="9">
-        <v>1020</v>
+      <c r="D15" s="16">
+        <v>1030</v>
       </c>
       <c r="E15" s="23">
         <v>2</v>
@@ -1412,134 +1393,136 @@
         <v>113</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E16" s="23">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>124</v>
+        <v>79</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>A$16</f>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
+      <c r="D17" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="8" t="str">
+        <v>82</v>
+      </c>
+      <c r="B18" s="17" t="str">
         <f>A$17</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>102</v>
+        <v>1005</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="17" t="str">
-        <f>A$18</f>
+        <f>A$17</f>
         <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E19" s="25">
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1547,32 +1530,29 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="17" t="str">
-        <f>A$18</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E20" s="25">
-        <v>3</v>
+      <c r="D20" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>88</v>
+        <v>24</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1580,29 +1560,32 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="B21" s="17" t="str">
+        <f>A$20</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
       <c r="C21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
+      <c r="D21" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1610,32 +1593,32 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22" s="17" t="str">
-        <f>A$21</f>
+        <f t="shared" ref="B22:B24" si="1">A$20</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1643,32 +1626,32 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="17" t="str">
-        <f t="shared" ref="B23:B25" si="1">A$21</f>
+        <f t="shared" si="1"/>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="9">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1676,7 +1659,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B24" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1686,59 +1669,26 @@
         <v>26</v>
       </c>
       <c r="D24" s="9">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAE5D9B-5787-994C-A96F-6C96709915EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5023E85-5247-E446-B213-C97E97D2DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="66340" yWindow="-7020" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>robot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SIDE-MENU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,6 +435,26 @@
   </si>
   <si>
     <t>/epic/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6ab0911e-be39-435a-a46c-da1a2aa52648</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -976,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1315,11 +1331,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6">
         <v>6000</v>
@@ -1328,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>92</v>
@@ -1343,14 +1359,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B15" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="9">
         <v>1015</v>
@@ -1359,29 +1375,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="I14" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="16">
         <v>1030</v>
@@ -1390,16 +1406,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="13"/>
     </row>
@@ -1455,7 +1471,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>104</v>
@@ -1560,7 +1576,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B21" s="17" t="str">
         <f>A$20</f>
@@ -1576,16 +1592,16 @@
         <v>2</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>59</v>
+        <v>120</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1593,10 +1609,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="17" t="str">
-        <f t="shared" ref="B22:B24" si="1">A$20</f>
+        <f>A$20</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -1609,16 +1625,16 @@
         <v>2</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1626,32 +1642,32 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B23:B25" si="1">A$20</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1659,7 +1675,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B24" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1669,26 +1685,59 @@
         <v>26</v>
       </c>
       <c r="D24" s="9">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5023E85-5247-E446-B213-C97E97D2DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A813A-277E-A74A-A996-AA6F40D48CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66340" yWindow="-7020" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="66960" yWindow="-6980" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -456,6 +456,25 @@
   <si>
     <t>environment</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1aa58879-1125-429a-b485-bfbbcc55ebde</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L25"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1609,32 +1628,32 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B22" s="17" t="str">
-        <f>A$20</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f>A$21</f>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1642,32 +1661,32 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="17" t="str">
-        <f t="shared" ref="B23:B25" si="1">A$20</f>
+        <f>A$20</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1675,32 +1694,32 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B24:B26" si="1">A$20</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1708,7 +1727,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B25" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1718,26 +1737,59 @@
         <v>26</v>
       </c>
       <c r="D25" s="9">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A813A-277E-A74A-A996-AA6F40D48CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E8092-588D-2743-9C25-FEFF14903EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66960" yWindow="-6980" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="51640" yWindow="-2660" windowWidth="53660" windowHeight="24020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -244,16 +244,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.sync</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.system.log</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zero.system.file</t>
@@ -264,217 +256,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/system/file</t>
+    <t>同步日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.todo.dashboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordered-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/dashboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9ed14c30-c9a1-4311-a0ab-cbeefd5b171a</t>
+  </si>
+  <si>
+    <t>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4492e01d-02ec-4c13-adc2-8df3a73f0ef2</t>
+  </si>
+  <si>
+    <t>字典管理</t>
+  </si>
+  <si>
+    <t>/acme/tabular</t>
+  </si>
+  <si>
+    <t>ef010bf1-3e4d-4727-9ef4-ba5b81b5a1c2</t>
+  </si>
+  <si>
+    <t>分类管理</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>/acme/category</t>
+  </si>
+  <si>
+    <t>zero.epic.metadata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.epic.category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.todo.assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交班管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/interaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbb1fa8d-d824-48cc-a530-c11df66e0346</t>
+  </si>
+  <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12b5f844-66b6-4034-b717-9d3224c7fb65</t>
+  </si>
+  <si>
+    <t>zero.data.system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPAND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDE-MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
+  </si>
+  <si>
+    <t>0d8d516f-429f-421a-a23d-b4b364dad951</t>
+  </si>
+  <si>
+    <t>ee635f66-62f6-4f16-b1ca-7fa1c0ee06b9</t>
+  </si>
+  <si>
+    <t>zero.develop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.develop.workflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.develop.report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>branches</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area-chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/epic/workflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/epic/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6ab0911e-be39-435a-a46c-da1a2aa52648</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1aa58879-1125-429a-b485-bfbbcc55ebde</t>
+  </si>
+  <si>
+    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9746b</t>
+  </si>
+  <si>
+    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9747b</t>
+  </si>
+  <si>
+    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9748b</t>
+  </si>
+  <si>
+    <t>文件存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同步日志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
+    <t>/system/file-store</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.todo.dashboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordered-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/dashboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9ed14c30-c9a1-4311-a0ab-cbeefd5b171a</t>
-  </si>
-  <si>
-    <t>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4492e01d-02ec-4c13-adc2-8df3a73f0ef2</t>
-  </si>
-  <si>
-    <t>字典管理</t>
-  </si>
-  <si>
-    <t>/acme/tabular</t>
-  </si>
-  <si>
-    <t>ef010bf1-3e4d-4727-9ef4-ba5b81b5a1c2</t>
-  </si>
-  <si>
-    <t>分类管理</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>/acme/category</t>
-  </si>
-  <si>
-    <t>zero.epic.metadata</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.epic.category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</t>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.todo.assignment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交班管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interaction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/interaction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbb1fa8d-d824-48cc-a530-c11df66e0346</t>
-  </si>
-  <si>
-    <t>任务管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12b5f844-66b6-4034-b717-9d3224c7fb65</t>
-  </si>
-  <si>
-    <t>zero.data.system</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPAND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIDE-MENU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
-  </si>
-  <si>
-    <t>0d8d516f-429f-421a-a23d-b4b364dad951</t>
-  </si>
-  <si>
-    <t>ee635f66-62f6-4f16-b1ca-7fa1c0ee06b9</t>
-  </si>
-  <si>
-    <t>zero.develop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.develop.workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.develop.report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>branches</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>area-chart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/epic/workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/epic/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>experiment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.module</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6ab0911e-be39-435a-a46c-da1a2aa52648</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/setting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.setting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1aa58879-1125-429a-b485-bfbbcc55ebde</t>
+    <t>zero.system.file-store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请/审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/file-request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/file-admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6470316-65ab-4fb3-9d2e-fcfb456259ba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.log-sync</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.log-system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.log-history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file-protect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file-add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1011,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1288,7 +1353,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1304,22 +1369,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
@@ -1335,26 +1400,26 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6">
         <v>6000</v>
@@ -1363,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>25</v>
@@ -1378,14 +1443,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B15" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="9">
         <v>1015</v>
@@ -1394,29 +1459,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D15" s="16">
         <v>1030</v>
@@ -1425,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
@@ -1453,13 +1518,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>25</v>
@@ -1468,7 +1533,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>A$16</f>
@@ -1484,22 +1549,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" s="17" t="str">
         <f>A$17</f>
@@ -1515,16 +1580,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1532,7 +1597,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="17" t="str">
         <f>A$17</f>
@@ -1548,16 +1613,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1581,7 +1646,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>24</v>
@@ -1595,7 +1660,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="17" t="str">
         <f>A$20</f>
@@ -1611,13 +1676,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>25</v>
@@ -1628,7 +1693,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>A$21</f>
@@ -1644,16 +1709,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1661,7 +1726,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>A$20</f>
@@ -1680,13 +1745,13 @@
         <v>67</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>59</v>
+        <v>141</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1694,32 +1759,32 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" s="17" t="str">
-        <f t="shared" ref="B24:B26" si="1">A$20</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f>A$23</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1727,32 +1792,32 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f t="shared" ref="B25:B27" si="1">A$23</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E25" s="25">
+        <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1760,36 +1825,162 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B26" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>A$27</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E28" s="25">
+        <v>3</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f t="shared" ref="B29:B30" si="2">A$27</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E29" s="25">
+        <v>3</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E30" s="25">
+        <v>3</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E8092-588D-2743-9C25-FEFF14903EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BCBBB-DD91-D14E-8C33-4F2C0F67E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51640" yWindow="-2660" windowWidth="53660" windowHeight="24020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>868442e3-2bcf-4549-a1d1-20db042b07d0</t>
-  </si>
-  <si>
     <t>f0a07246-1b90-48b7-bfbb-e32bed28ede6</t>
   </si>
   <si>
@@ -461,15 +458,6 @@
     <t>1aa58879-1125-429a-b485-bfbbcc55ebde</t>
   </si>
   <si>
-    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9746b</t>
-  </si>
-  <si>
-    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9747b</t>
-  </si>
-  <si>
-    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9748b</t>
-  </si>
-  <si>
     <t>文件存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +528,19 @@
   <si>
     <t>wallet</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>868442e3-2bcf-4549-a1d1-20db042b07d0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07fe771a-712d-466e-b22e-1616a04e94e4</t>
+  </si>
+  <si>
+    <t>161ea6a9-7a92-4690-95a8-e57798a91202</t>
+  </si>
+  <si>
+    <t>b09c258a-d737-492a-8766-5092bcd31d4b</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1080,7 @@
   <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1353,7 +1354,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1369,22 +1370,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
@@ -1400,26 +1401,26 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6">
         <v>6000</v>
@@ -1428,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>25</v>
@@ -1443,14 +1444,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B15" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="9">
         <v>1015</v>
@@ -1459,29 +1460,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="I14" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="16">
         <v>1030</v>
@@ -1490,22 +1491,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
@@ -1518,13 +1519,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>25</v>
@@ -1533,7 +1534,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>A$16</f>
@@ -1549,22 +1550,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="H17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="17" t="str">
         <f>A$17</f>
@@ -1580,16 +1581,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1597,7 +1598,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="17" t="str">
         <f>A$17</f>
@@ -1613,16 +1614,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1630,7 +1631,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
@@ -1643,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>24</v>
@@ -1660,7 +1661,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="17" t="str">
         <f>A$20</f>
@@ -1676,13 +1677,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>25</v>
@@ -1693,7 +1694,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>A$21</f>
@@ -1709,16 +1710,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1726,7 +1727,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>A$20</f>
@@ -1742,13 +1743,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>25</v>
@@ -1759,7 +1760,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="17" t="str">
         <f>A$23</f>
@@ -1775,16 +1776,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1792,10 +1793,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="17" t="str">
-        <f t="shared" ref="B25:B27" si="1">A$23</f>
+        <f t="shared" ref="B25:B26" si="1">A$23</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -1808,13 +1809,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>51</v>
@@ -1825,7 +1826,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1841,16 +1842,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1858,11 +1859,11 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$20</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>26</v>
@@ -1874,13 +1875,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="H27" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>25</v>
@@ -1891,7 +1892,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>A$27</f>
@@ -1907,22 +1908,22 @@
         <v>3</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B29" s="17" t="str">
         <f t="shared" ref="B29:B30" si="2">A$27</f>
@@ -1938,22 +1939,22 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B30" s="17" t="str">
         <f t="shared" si="2"/>
@@ -1969,16 +1970,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J30" s="9"/>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BCBBB-DD91-D14E-8C33-4F2C0F67E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B095C0-DB10-574B-A2FF-6458272CC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51640" yWindow="-2660" windowWidth="53660" windowHeight="24020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -175,9 +177,6 @@
     <t>{"function":"fnLogout"}</t>
   </si>
   <si>
-    <t>/system/todo</t>
-  </si>
-  <si>
     <t>zero.personal.password</t>
   </si>
   <si>
@@ -541,6 +540,10 @@
   </si>
   <si>
     <t>b09c258a-d737-492a-8766-5092bcd31d4b</t>
+  </si>
+  <si>
+    <t>/system/todo-queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1196,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>28</v>
@@ -1224,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>34</v>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>38</v>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>42</v>
@@ -1308,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1339,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1348,13 +1351,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1370,22 +1373,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
@@ -1401,26 +1404,26 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="6">
         <v>6000</v>
@@ -1429,13 +1432,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>25</v>
@@ -1444,14 +1447,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B15" si="0">A$13</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9">
         <v>1015</v>
@@ -1460,29 +1463,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="I14" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="16">
         <v>1030</v>
@@ -1491,22 +1494,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
@@ -1519,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>25</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>A$16</f>
@@ -1550,22 +1553,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="H17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="17" t="str">
         <f>A$17</f>
@@ -1581,16 +1584,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="17" t="str">
         <f>A$17</f>
@@ -1614,16 +1617,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
@@ -1644,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>24</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="17" t="str">
         <f>A$20</f>
@@ -1677,13 +1680,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>25</v>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>A$21</f>
@@ -1710,16 +1713,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>A$20</f>
@@ -1743,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>25</v>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="17" t="str">
         <f>A$23</f>
@@ -1776,16 +1779,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="17" t="str">
         <f t="shared" ref="B25:B26" si="1">A$23</f>
@@ -1809,16 +1812,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1842,16 +1845,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="17" t="str">
         <f>A$20</f>
@@ -1875,13 +1878,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="H27" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>25</v>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>A$27</f>
@@ -1908,22 +1911,22 @@
         <v>3</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="17" t="str">
         <f t="shared" ref="B29:B30" si="2">A$27</f>
@@ -1939,22 +1942,22 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="17" t="str">
         <f t="shared" si="2"/>
@@ -1970,16 +1973,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J30" s="9"/>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B095C0-DB10-574B-A2FF-6458272CC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B9F78-2728-2049-B205-F2C1FEA63E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51640" yWindow="-2660" windowWidth="53660" windowHeight="24020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>name</t>
   </si>
@@ -477,18 +477,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/system/file-admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.system.file-request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.file-admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -544,6 +536,18 @@
   <si>
     <t>/system/todo-queue</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/file-my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1083,7 +1087,7 @@
   <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1351,7 +1355,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J10" s="13"/>
     </row>
@@ -1634,7 +1638,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
@@ -1730,7 +1734,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>A$20</f>
@@ -1749,10 +1753,10 @@
         <v>65</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>25</v>
@@ -1779,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>68</v>
@@ -1812,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>59</v>
@@ -1845,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>61</v>
@@ -1884,7 +1888,7 @@
         <v>67</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>25</v>
@@ -1895,7 +1899,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>A$27</f>
@@ -1917,7 +1921,7 @@
         <v>123</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>124</v>
@@ -1926,7 +1930,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" s="17" t="str">
         <f t="shared" ref="B29:B30" si="2">A$27</f>
@@ -1942,13 +1946,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>126</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>127</v>
@@ -1957,7 +1961,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="17" t="str">
         <f t="shared" si="2"/>
@@ -1973,16 +1977,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J30" s="9"/>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B9F78-2728-2049-B205-F2C1FEA63E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE0331-9F7D-424C-92D9-20F0956D95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51640" yWindow="-2660" windowWidth="53660" windowHeight="24020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="53220" yWindow="-1860" windowWidth="41320" windowHeight="24440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -190,14 +190,6 @@
   </si>
   <si>
     <t>zero.personal.info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.todo.system</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -256,18 +248,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.todo.dashboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ordered-list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/system/dashboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,25 +305,6 @@
   <si>
     <t>系统设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.todo.assignment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交班管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interaction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/interaction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbb1fa8d-d824-48cc-a530-c11df66e0346</t>
   </si>
   <si>
     <t>任务管理</t>
@@ -534,10 +499,6 @@
     <t>b09c258a-d737-492a-8766-5092bcd31d4b</t>
   </si>
   <si>
-    <t>/system/todo-queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,6 +509,49 @@
   <si>
     <t>/system/file-my</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check-square</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a630066-b24f-4fee-a09a-208b0cfbb053</t>
+  </si>
+  <si>
+    <t>/system/my-approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/my-todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/my-task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.my</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.my.system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.my.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.my.dashboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1087,7 +1091,7 @@
   <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1106,7 +1110,7 @@
     <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1128,7 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>28</v>
@@ -1216,7 +1220,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -1272,7 +1276,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1328,7 +1332,7 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1355,19 +1359,19 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
         <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="16">
@@ -1376,23 +1380,26 @@
       <c r="E11" s="23">
         <v>2</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>69</v>
+      <c r="F11" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
@@ -1408,304 +1415,298 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="6">
-        <v>6000</v>
+        <v>5720</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>104</v>
+      <c r="F13" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f>A$13</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f>A$13</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="17" t="str">
+        <f>A$13</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" ref="B18:B19" si="0">A$17</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="8" t="str">
-        <f t="shared" ref="B14:B15" si="0">A$13</f>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E14" s="23">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="8" t="str">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="16">
         <v>1030</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E19" s="23">
         <v>2</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="8" t="str">
-        <f>A$16</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="17" t="str">
-        <f>A$17</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E18" s="25">
-        <v>3</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="17" t="str">
-        <f>A$17</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E19" s="25">
-        <v>3</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="G19" s="14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="6">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>64</v>
+      <c r="F20" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="17" t="str">
+        <v>86</v>
+      </c>
+      <c r="B21" s="8" t="str">
         <f>A$20</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="9">
-        <v>1005</v>
+        <v>1100</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>115</v>
+      <c r="F21" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>A$21</f>
-        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>26</v>
@@ -1717,16 +1718,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1734,11 +1735,11 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="str">
-        <f>A$20</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f>A$21</f>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
@@ -1746,20 +1747,20 @@
       <c r="D23" s="9">
         <v>1010</v>
       </c>
-      <c r="E23" s="2">
-        <v>2</v>
+      <c r="E23" s="25">
+        <v>3</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1767,32 +1768,29 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="17" t="str">
-        <f>A$23</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E24" s="25">
-        <v>3</v>
+      <c r="D24" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1800,11 +1798,11 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B25" s="17" t="str">
-        <f t="shared" ref="B25:B26" si="1">A$23</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$24</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>26</v>
@@ -1812,20 +1810,20 @@
       <c r="D25" s="9">
         <v>1005</v>
       </c>
-      <c r="E25" s="25">
-        <v>3</v>
+      <c r="E25" s="2">
+        <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>50</v>
+        <v>105</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1833,11 +1831,11 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$25</f>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>26</v>
@@ -1849,16 +1847,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1866,29 +1864,29 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B27" s="17" t="str">
-        <f>A$20</f>
+        <f>A$24</f>
         <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>25</v>
@@ -1899,11 +1897,11 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>A$27</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>26</v>
@@ -1915,80 +1913,86 @@
         <v>3</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="B29" s="17" t="str">
-        <f t="shared" ref="B29:B30" si="2">A$27</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+        <f t="shared" ref="B29:B30" si="1">A$27</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E29" s="25">
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="B30" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+        <f t="shared" si="1"/>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="9">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E30" s="25">
         <v>3</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE0331-9F7D-424C-92D9-20F0956D95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E550488-BBC9-564F-9F69-A5F96376E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53220" yWindow="-1860" windowWidth="41320" windowHeight="24440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -1091,7 +1091,7 @@
   <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E550488-BBC9-564F-9F69-A5F96376E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BED979-F755-7F4A-88F5-863C8374E144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53220" yWindow="-1860" windowWidth="41320" windowHeight="24440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/system/history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.system</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -552,6 +548,10 @@
   <si>
     <t>zero.my.dashboard</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1359,13 +1359,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1381,25 +1381,25 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
@@ -1415,22 +1415,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="14" t="s">
@@ -1443,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>25</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="17" t="str">
         <f>A$13</f>
@@ -1476,22 +1476,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="17" t="str">
         <f>A$13</f>
@@ -1507,22 +1507,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="17" t="str">
         <f>A$13</f>
@@ -1538,26 +1538,26 @@
         <v>2</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="6">
         <v>6000</v>
@@ -1566,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>25</v>
@@ -1581,14 +1581,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" ref="B18:B19" si="0">A$17</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9">
         <v>1015</v>
@@ -1597,29 +1597,29 @@
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="I18" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="16">
         <v>1030</v>
@@ -1628,22 +1628,22 @@
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="I19" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="13" t="s">
@@ -1656,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>25</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="8" t="str">
         <f>A$20</f>
@@ -1687,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="H21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="17" t="str">
         <f>A$21</f>
@@ -1718,16 +1718,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>A$21</f>
@@ -1751,16 +1751,16 @@
         <v>3</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="14" t="s">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>24</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="17" t="str">
         <f>A$24</f>
@@ -1814,13 +1814,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>25</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>A$25</f>
@@ -1847,16 +1847,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="17" t="str">
         <f>A$24</f>
@@ -1880,13 +1880,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>25</v>
@@ -1913,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>54</v>
@@ -1946,13 +1946,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>50</v>
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>59</v>
@@ -1988,7 +1988,7 @@
         <v>60</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BED979-F755-7F4A-88F5-863C8374E144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2633D-25AB-D940-8A3F-906AF8212F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53220" yWindow="-1860" windowWidth="41320" windowHeight="24440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -430,18 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请/审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/file-request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.file-request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -489,9 +477,6 @@
     <t>07fe771a-712d-466e-b22e-1616a04e94e4</t>
   </si>
   <si>
-    <t>161ea6a9-7a92-4690-95a8-e57798a91202</t>
-  </si>
-  <si>
     <t>b09c258a-d737-492a-8766-5092bcd31d4b</t>
   </si>
   <si>
@@ -552,6 +537,74 @@
   <si>
     <t>/system/activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9379b4cc-5f35-4231-9fcc-ec9fea60dea6</t>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.file.management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.file.management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.file-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/run?name=process.file.management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</t>
+  </si>
+  <si>
+    <t>0a902f35-a4fd-425a-9a1a-c15bf3fa345f</t>
+  </si>
+  <si>
+    <t>078cf1cd-c89a-4a39-8744-ea351f6f96ca</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1319,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1350,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1359,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1381,20 +1434,20 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1415,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>83</v>
@@ -1424,7 +1477,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J12" s="13"/>
     </row>
@@ -1449,7 +1502,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>25</v>
@@ -1460,7 +1513,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" s="17" t="str">
         <f>A$13</f>
@@ -1482,7 +1535,7 @@
         <v>113</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>114</v>
@@ -1491,10 +1544,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B15" s="17" t="str">
-        <f>A$13</f>
+        <f t="shared" ref="B15:B19" si="0">A$13</f>
         <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1507,162 +1560,165 @@
         <v>2</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>117</v>
+        <v>151</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B16" s="17" t="str">
-        <f>A$13</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+        <f>A$15</f>
+        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E16" s="25">
+        <v>3</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>94</v>
+        <v>161</v>
+      </c>
+      <c r="B17" s="17" t="str">
+        <f t="shared" ref="B17:B18" si="1">A$15</f>
+        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="25">
+        <v>3</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="8" t="str">
-        <f t="shared" ref="B18:B19" si="0">A$17</f>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>89</v>
+        <v>146</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="9">
         <v>1015</v>
       </c>
-      <c r="E18" s="23">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>95</v>
+      <c r="E18" s="25">
+        <v>3</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>145</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="8" t="str">
+        <v>128</v>
+      </c>
+      <c r="B19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E19" s="23">
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>96</v>
+      <c r="F19" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="13" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D20" s="6">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>25</v>
@@ -1671,138 +1727,132 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B21" s="8" t="str">
-        <f>A$20</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>26</v>
+        <f t="shared" ref="B21:B22" si="2">A$20</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E21" s="2">
+        <v>1015</v>
+      </c>
+      <c r="E21" s="23">
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="17" t="str">
-        <f>A$21</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E22" s="25">
-        <v>3</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="17" t="str">
-        <f>A$21</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
-      <c r="C23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E23" s="25">
-        <v>3</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>79</v>
+      <c r="D23" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>A$23</f>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+      </c>
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>61</v>
+      <c r="D24" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B25" s="17" t="str">
         <f>A$24</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>26</v>
@@ -1810,20 +1860,20 @@
       <c r="D25" s="9">
         <v>1005</v>
       </c>
-      <c r="E25" s="2">
-        <v>2</v>
+      <c r="E25" s="25">
+        <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1831,32 +1881,32 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B26" s="17" t="str">
-        <f>A$25</f>
-        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
+        <f>A$24</f>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1864,29 +1914,26 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="17" t="str">
-        <f>A$24</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B27" s="17"/>
       <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
+      <c r="D27" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>25</v>
@@ -1897,11 +1944,11 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>A$27</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>26</v>
@@ -1909,20 +1956,20 @@
       <c r="D28" s="9">
         <v>1005</v>
       </c>
-      <c r="E28" s="25">
-        <v>3</v>
+      <c r="E28" s="2">
+        <v>2</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>55</v>
+        <v>104</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1930,11 +1977,11 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B29" s="17" t="str">
-        <f t="shared" ref="B29:B30" si="1">A$27</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$28</f>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>26</v>
@@ -1946,16 +1993,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1963,36 +2010,135 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B30" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$27</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E30" s="25">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>A$30</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E31" s="25">
+        <v>3</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="17" t="str">
+        <f t="shared" ref="B32:B33" si="3">A$30</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E33" s="25">
+        <v>3</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2633D-25AB-D940-8A3F-906AF8212F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F54C4-F8B6-F540-88CF-6431F3EE3738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -594,10 +594,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/workflow/run?name=process.file.management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</t>
   </si>
   <si>
@@ -605,6 +601,10 @@
   </si>
   <si>
     <t>078cf1cd-c89a-4a39-8744-ea351f6f96ca</t>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.file.management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1144,7 +1144,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1157,7 +1157,7 @@
     <col min="6" max="6" width="43.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="3"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="17" t="str">
         <f t="shared" ref="B15:B19" si="0">A$13</f>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="17" t="str">
         <f>A$15</f>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="17" t="str">
         <f t="shared" ref="B17:B18" si="1">A$15</f>
@@ -1631,7 +1631,7 @@
         <v>157</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J17" s="9"/>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F54C4-F8B6-F540-88CF-6431F3EE3738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66774551-9993-4C44-AD23-E4178579A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="41000" yWindow="-1580" windowWidth="35820" windowHeight="23200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ordered-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,9 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9ed14c30-c9a1-4311-a0ab-cbeefd5b171a</t>
-  </si>
-  <si>
     <t>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,10 +293,6 @@
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -515,10 +504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/system/my-task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.my</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -528,10 +513,6 @@
   </si>
   <si>
     <t>zero.my.approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.my.dashboard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -605,6 +586,47 @@
   <si>
     <t>/workflow/queue?name=process.file.management</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</t>
+  </si>
+  <si>
+    <t>a6498973-e9c6-4132-97cf-039be93dc647</t>
+  </si>
+  <si>
+    <t>zero.my.task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/my-task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc62a7ab-b5d2-4f0a-8f6c-5992d15adc49</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1362,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="6">
@@ -1372,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1393,7 +1415,7 @@
         <f>A$9</f>
         <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="16">
@@ -1403,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1412,13 +1434,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1434,31 +1456,31 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
         <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="16">
@@ -1467,23 +1489,24 @@
       <c r="E12" s="23">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>142</v>
+      <c r="F12" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="14" t="s">
@@ -1502,7 +1525,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>25</v>
@@ -1513,7 +1536,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="17" t="str">
         <f>A$13</f>
@@ -1529,22 +1552,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B15" s="17" t="str">
         <f t="shared" ref="B15:B19" si="0">A$13</f>
@@ -1560,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>25</v>
@@ -1575,7 +1598,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B16" s="17" t="str">
         <f>A$15</f>
@@ -1591,22 +1614,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B17" s="17" t="str">
         <f t="shared" ref="B17:B18" si="1">A$15</f>
@@ -1622,22 +1645,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B18" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1653,22 +1676,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1684,26 +1707,26 @@
         <v>2</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="6">
         <v>6000</v>
@@ -1712,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>25</v>
@@ -1727,14 +1750,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" ref="B21:B22" si="2">A$20</f>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D21" s="9">
         <v>1015</v>
@@ -1743,29 +1766,29 @@
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="16">
         <v>1030</v>
@@ -1774,22 +1797,22 @@
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
@@ -1802,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>25</v>
@@ -1817,7 +1840,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>A$23</f>
@@ -1833,22 +1856,22 @@
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="17" t="str">
         <f>A$24</f>
@@ -1864,16 +1887,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1881,7 +1904,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>A$24</f>
@@ -1897,16 +1920,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1914,7 +1937,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="14" t="s">
@@ -1930,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>24</v>
@@ -1944,7 +1967,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="17" t="str">
         <f>A$27</f>
@@ -1960,13 +1983,13 @@
         <v>2</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>25</v>
@@ -1977,7 +2000,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="17" t="str">
         <f>A$28</f>
@@ -1993,16 +2016,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2010,7 +2033,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="17" t="str">
         <f>A$27</f>
@@ -2029,10 +2052,10 @@
         <v>62</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>25</v>
@@ -2059,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>65</v>
@@ -2092,13 +2115,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>50</v>
@@ -2125,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>59</v>
@@ -2134,11 +2157,41 @@
         <v>60</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66774551-9993-4C44-AD23-E4178579A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E0BB79-8A39-C448-949B-D1A860282AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41000" yWindow="-1580" windowWidth="35820" windowHeight="23200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -618,15 +618,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/system/my-task</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bc62a7ab-b5d2-4f0a-8f6c-5992d15adc49</t>
+  </si>
+  <si>
+    <t>ordered-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>A$9</f>
@@ -1496,10 +1496,10 @@
         <v>164</v>
       </c>
       <c r="H12" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E0BB79-8A39-C448-949B-D1A860282AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A8858D-A8F5-8F47-A415-1EB73B431263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41000" yWindow="-1580" windowWidth="35820" windowHeight="23200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="54340" yWindow="-3520" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -485,10 +485,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>check-square</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我的审批</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -496,34 +492,14 @@
     <t>7a630066-b24f-4fee-a09a-208b0cfbb053</t>
   </si>
   <si>
-    <t>/system/my-approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/my-todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.my</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.my.system</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.my.approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/system/activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请历史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>history</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -539,10 +515,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件流程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -567,10 +539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件审批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>audit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -588,45 +556,89 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/desktop/notification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公告管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.desktop.notification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</t>
-  </si>
-  <si>
     <t>a6498973-e9c6-4132-97cf-039be93dc647</t>
   </si>
   <si>
-    <t>zero.my.task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/my-task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc62a7ab-b5d2-4f0a-8f6c-5992d15adc49</t>
-  </si>
-  <si>
-    <t>ordered-list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>zero.my.todo-pending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.my.todo-report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/my/todo-pending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/my/todo-report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.log-workflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程操作日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/workflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a39c01a6-a98b-4b6e-b2bf-8e02ba868e32</t>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理/审批工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.system.document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3733ccc2-3799-4095-a01a-b8bdbbe9211d</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1394,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1425,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1434,13 +1446,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1456,16 +1468,16 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
@@ -1474,197 +1486,196 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="8" t="str">
-        <f>A$9</f>
-        <v>45934bc8-f3f1-42f8-b807-57e313fcf8f4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16">
-        <v>1015</v>
-      </c>
-      <c r="E12" s="23">
-        <v>2</v>
+      <c r="D12" s="6">
+        <v>5720</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>165</v>
+        <v>119</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f>A$12</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
       <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6">
-        <v>5720</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
+      <c r="D13" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B14" s="17" t="str">
-        <f>A$13</f>
+        <f t="shared" ref="B14:B18" si="0">A$12</f>
         <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>111</v>
+        <v>139</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B15" s="17" t="str">
-        <f t="shared" ref="B15:B19" si="0">A$13</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+        <f>A$14</f>
+        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E15" s="25">
+        <v>3</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>25</v>
+        <v>121</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B16" s="17" t="str">
-        <f>A$15</f>
+        <f t="shared" ref="B16:B17" si="1">A$14</f>
         <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E16" s="25">
         <v>3</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="I16" s="21" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B17" s="17" t="str">
-        <f t="shared" ref="B17:B18" si="1">A$15</f>
+        <f t="shared" si="1"/>
         <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="9">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E17" s="25">
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B18" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
+        <f t="shared" si="0"/>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>26</v>
@@ -1672,264 +1683,257 @@
       <c r="D18" s="9">
         <v>1015</v>
       </c>
-      <c r="E18" s="25">
-        <v>3</v>
+      <c r="E18" s="2">
+        <v>2</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5730</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="C20" s="13" t="s">
-        <v>86</v>
+      <c r="C20" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="6">
-        <v>6000</v>
+        <v>5890</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>91</v>
+      <c r="F20" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="8" t="str">
-        <f t="shared" ref="B21:B22" si="2">A$20</f>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B21" s="17"/>
       <c r="C21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E21" s="23">
-        <v>2</v>
+      <c r="D21" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f t="shared" ref="B22:B23" si="2">A$21</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <v>1030</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E23" s="23">
         <v>2</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F23" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I23" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="8" t="str">
-        <f>A$23</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
-      </c>
-      <c r="C24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
+      <c r="D24" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="17" t="str">
+        <v>82</v>
+      </c>
+      <c r="B25" s="8" t="str">
         <f>A$24</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E25" s="25">
-        <v>3</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>76</v>
+        <v>1100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" s="17" t="str">
-        <f>A$24</f>
+        <f>A$25</f>
         <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1937,29 +1941,32 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f>A$25</f>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
+      </c>
       <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
+      <c r="D27" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E27" s="25">
+        <v>3</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1967,29 +1974,26 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="17" t="str">
-        <f>A$27</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
+      <c r="D28" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>25</v>
@@ -2000,11 +2004,11 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B29" s="17" t="str">
         <f>A$28</f>
-        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>26</v>
@@ -2012,20 +2016,20 @@
       <c r="D29" s="9">
         <v>1005</v>
       </c>
-      <c r="E29" s="25">
-        <v>3</v>
+      <c r="E29" s="2">
+        <v>2</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2033,32 +2037,32 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B30" s="17" t="str">
-        <f>A$27</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f>A$29</f>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E30" s="25">
+        <v>3</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>25</v>
+        <v>106</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2066,32 +2070,32 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B31" s="17" t="str">
-        <f>A$30</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$28</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E31" s="25">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>55</v>
+        <v>118</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2099,14 +2103,14 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B32" s="17" t="str">
-        <f t="shared" ref="B32:B33" si="3">A$30</f>
+        <f>A$31</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D32" s="9">
         <v>1005</v>
@@ -2115,16 +2119,16 @@
         <v>3</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2132,32 +2136,32 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B33" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f>A$31</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D33" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E33" s="25">
         <v>3</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2165,33 +2169,69 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>161</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="17" t="str">
+        <f t="shared" ref="B34:B35" si="3">A$31</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
+        <v>1015</v>
+      </c>
+      <c r="E34" s="25">
+        <v>3</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E35" s="25">
+        <v>3</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A8858D-A8F5-8F47-A415-1EB73B431263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85A85B-6BA2-2A40-B9CD-6B7DF151BA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54340" yWindow="-3520" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -485,10 +485,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我的审批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7a630066-b24f-4fee-a09a-208b0cfbb053</t>
   </si>
   <si>
@@ -639,6 +635,10 @@
   </si>
   <si>
     <t>3733ccc2-3799-4095-a01a-b8bdbbe9211d</t>
+  </si>
+  <si>
+    <t>个人报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1178,7 +1178,7 @@
   <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1446,13 +1446,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1468,16 +1468,16 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="17" t="str">
         <f t="shared" ref="B14:B18" si="0">A$12</f>
@@ -1563,13 +1563,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>25</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="17" t="str">
         <f>A$14</f>
@@ -1594,22 +1594,22 @@
         <v>3</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>121</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="17" t="str">
         <f t="shared" ref="B16:B17" si="1">A$14</f>
@@ -1625,22 +1625,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="I16" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1656,16 +1656,16 @@
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="9"/>
     </row>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
@@ -1715,23 +1715,23 @@
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="14" t="s">
@@ -1744,16 +1744,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="J20" s="9"/>
     </row>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="17" t="str">
         <f>A$31</f>
@@ -2119,16 +2119,16 @@
         <v>3</v>
       </c>
       <c r="F32" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="I32" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2227,7 +2227,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85A85B-6BA2-2A40-B9CD-6B7DF151BA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0FC0D1-9628-6D4A-9C9C-18B88F438BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54340" yWindow="-3520" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -616,25 +616,6 @@
   <si>
     <t>历史工单</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>container</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/document</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3733ccc2-3799-4095-a01a-b8bdbbe9211d</t>
   </si>
   <si>
     <t>个人报表</t>
@@ -1175,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L35"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1471,7 +1452,7 @@
         <v>151</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>97</v>
@@ -1702,238 +1683,242 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="14" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6">
-        <v>5730</v>
+        <v>5890</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="C20" s="14" t="s">
-        <v>26</v>
+      <c r="C20" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="D20" s="6">
-        <v>5890</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>161</v>
+      <c r="F20" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" ref="B21:B22" si="2">A$20</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+      </c>
       <c r="C21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
+      <c r="D21" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="8" t="str">
-        <f t="shared" ref="B22:B23" si="2">A$21</f>
+        <f t="shared" si="2"/>
         <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="9">
-        <v>1015</v>
+      <c r="D22" s="16">
+        <v>1030</v>
       </c>
       <c r="E22" s="23">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E23" s="23">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>A$23</f>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
+      <c r="D24" s="9">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="8" t="str">
+        <v>69</v>
+      </c>
+      <c r="B25" s="17" t="str">
         <f>A$24</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>83</v>
+        <v>1005</v>
+      </c>
+      <c r="E25" s="25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B26" s="17" t="str">
-        <f>A$25</f>
+        <f>A$24</f>
         <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1941,32 +1926,29 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="17" t="str">
-        <f>A$25</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B27" s="17"/>
       <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E27" s="25">
-        <v>3</v>
+      <c r="D27" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1974,26 +1956,29 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>A$27</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
       <c r="C28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1</v>
+      <c r="D28" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>25</v>
@@ -2004,11 +1989,11 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B29" s="17" t="str">
         <f>A$28</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>26</v>
@@ -2016,20 +2001,20 @@
       <c r="D29" s="9">
         <v>1005</v>
       </c>
-      <c r="E29" s="2">
-        <v>2</v>
+      <c r="E29" s="25">
+        <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>25</v>
+        <v>106</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2037,32 +2022,32 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B30" s="17" t="str">
-        <f>A$29</f>
-        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
+        <f>A$27</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E30" s="25">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>107</v>
+        <v>118</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2070,32 +2055,32 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B31" s="17" t="str">
-        <f>A$28</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f>A$30</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D31" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E31" s="25">
+        <v>3</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>25</v>
+        <v>156</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2103,32 +2088,32 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="B32" s="17" t="str">
-        <f>A$31</f>
+        <f>A$30</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E32" s="25">
         <v>3</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2136,32 +2121,32 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B33" s="17" t="str">
-        <f>A$31</f>
+        <f t="shared" ref="B33:B34" si="3">A$30</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D33" s="9">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E33" s="25">
         <v>3</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2169,69 +2154,36 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="17" t="str">
-        <f t="shared" ref="B34:B35" si="3">A$31</f>
+        <f t="shared" si="3"/>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E34" s="25">
         <v>3</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E35" s="25">
-        <v>3</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0FC0D1-9628-6D4A-9C9C-18B88F438BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC6875-5D97-D544-9833-AB7B29B4E1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54340" yWindow="-3520" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="43640" yWindow="-6020" windowWidth="43440" windowHeight="22660" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="188">
   <si>
     <t>name</t>
   </si>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,9 +258,6 @@
     <t>字典管理</t>
   </si>
   <si>
-    <t>/acme/tabular</t>
-  </si>
-  <si>
     <t>ef010bf1-3e4d-4727-9ef4-ba5b81b5a1c2</t>
   </si>
   <si>
@@ -274,17 +267,6 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>/acme/category</t>
-  </si>
-  <si>
-    <t>zero.epic.metadata</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.epic.category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</t>
   </si>
   <si>
@@ -300,74 +282,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12b5f844-66b6-4034-b717-9d3224c7fb65</t>
-  </si>
-  <si>
-    <t>zero.data.system</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPAND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SIDE-MENU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开发中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
   </si>
   <si>
-    <t>0d8d516f-429f-421a-a23d-b4b364dad951</t>
-  </si>
-  <si>
     <t>ee635f66-62f6-4f16-b1ca-7fa1c0ee06b9</t>
   </si>
   <si>
-    <t>zero.develop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.develop.workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.develop.report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>branches</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>area-chart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/epic/workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/epic/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模块参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,10 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>environment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>全局配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -407,18 +331,6 @@
     <t>1aa58879-1125-429a-b485-bfbbcc55ebde</t>
   </si>
   <si>
-    <t>文件存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/file-store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.file-store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -447,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cloud-upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>file-add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,9 +371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>07fe771a-712d-466e-b22e-1616a04e94e4</t>
-  </si>
-  <si>
     <t>b09c258a-d737-492a-8766-5092bcd31d4b</t>
   </si>
   <si>
@@ -473,14 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.file-my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/file-my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各种审批</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -511,37 +408,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>file</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.file-w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.file-w.done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.file-w.open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.system.file-w.approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>audit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</t>
-  </si>
-  <si>
     <t>0a902f35-a4fd-425a-9a1a-c15bf3fa345f</t>
   </si>
   <si>
@@ -619,6 +493,218 @@
   </si>
   <si>
     <t>个人报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ambient/category/zero.file.tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0ca01825-953f-46bc-ae27-9dae317a2b82</t>
+  </si>
+  <si>
+    <t>平台应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.app.setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.app.data-source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/application/setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/application/database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.app.module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deployment-unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/application/module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.app.module-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/application/module-config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.app.menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/application/menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab07e5df-94ac-43c0-a66d-55131627ee33</t>
+  </si>
+  <si>
+    <t>1f71c9c4-4d01-46de-8105-9d44d633678b</t>
+  </si>
+  <si>
+    <t>a8f56c74-4215-4e98-86bb-1293787d5db6</t>
+  </si>
+  <si>
+    <t>43dd6ee4-4f53-4177-9ad0-9ec9ae7704ca</t>
+  </si>
+  <si>
+    <t>b1488c53-5bdc-4775-be38-4f0c667319bb</t>
+  </si>
+  <si>
+    <t>1d8d13dc-0efc-4190-a159-dcd70644da22</t>
+  </si>
+  <si>
+    <t>报表中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS-MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1f635e32-474d-4e93-b497-07063c9272ae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.workflow.file-w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.workflow.file-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.workflow.file-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.workflow.file-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.workflow.file-my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.report.designer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表设计器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuque</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/designer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/framework-workflow/file-my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fec80da-7c6c-4f8a-a73c-3d37994b8935</t>
+  </si>
+  <si>
+    <t>framework.data.tabular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework.data.category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/framework-data/tabular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/framework-data/category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.file-tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -770,11 +856,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,6 +936,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1185,16 +1287,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
@@ -1387,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1418,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1427,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1449,671 +1551,664 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="6">
-        <v>5720</v>
+        <v>5890</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>25</v>
+        <v>126</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="17" t="str">
-        <f>A$12</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
-      <c r="C13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>112</v>
+      <c r="D13" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B14" s="17" t="str">
-        <f t="shared" ref="B14:B18" si="0">A$12</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
-      <c r="C14" s="14" t="s">
+        <f>A$13</f>
+        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E14" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E14" s="23">
         <v>2</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>25</v>
+        <v>110</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="17" t="str">
-        <f>A$14</f>
-        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E15" s="25">
-        <v>3</v>
+      <c r="D15" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B16" s="17" t="str">
-        <f t="shared" ref="B16:B17" si="1">A$14</f>
-        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
+        <f>A$15</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E16" s="25">
-        <v>3</v>
+        <v>1005</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="B17" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>fe6e15c5-18b8-403d-a7f3-83c39f36ffc1</v>
+        <f>A$16</f>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="9">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E17" s="25">
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B18" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+        <f>A$15</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>128</v>
+        <v>95</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="B19" s="17" t="str">
+        <f>A$18</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
       <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6">
-        <v>5890</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="17" t="str">
+        <f>A$18</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="8" t="str">
-        <f t="shared" ref="B21:B22" si="2">A$20</f>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="17" t="str">
+        <f t="shared" ref="B21:B22" si="0">A$18</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="9">
         <v>1015</v>
       </c>
-      <c r="E21" s="23">
-        <v>2</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>92</v>
+      <c r="E21" s="25">
+        <v>3</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E22" s="23">
-        <v>2</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="B22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13" t="s">
-        <v>26</v>
+        <v>160</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="D23" s="6">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>66</v>
+      <c r="F23" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="8" t="str">
+        <v>161</v>
+      </c>
+      <c r="B24" s="17" t="str">
         <f>A$23</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
+        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D24" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E24" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E24" s="26">
         <v>2</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>83</v>
+      <c r="F24" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="B25" s="17" t="str">
-        <f>A$24</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
+        <f t="shared" ref="B25:B28" si="1">A$23</f>
+        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D25" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E25" s="25">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="13"/>
+        <v>146</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="B26" s="17" t="str">
-        <f>A$24</f>
-        <v>12b5f844-66b6-4034-b717-9d3224c7fb65</v>
+        <f t="shared" si="1"/>
+        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D26" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E26" s="25">
-        <v>3</v>
+        <v>1015</v>
+      </c>
+      <c r="E26" s="26">
+        <v>2</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="13"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
+      </c>
       <c r="C27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E27" s="26">
+        <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="B28" s="17" t="str">
-        <f>A$27</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f t="shared" si="1"/>
+        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D28" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E28" s="2">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="26">
         <v>2</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="17" t="str">
-        <f>A$28</f>
-        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E29" s="25">
-        <v>3</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="D29" s="6">
+        <v>80000</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="17" t="str">
-        <f>A$27</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <v>79</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>A$29</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E30" s="2">
+        <v>137</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E30" s="23">
         <v>2</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>62</v>
+      <c r="F30" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="17" t="str">
-        <f>A$30</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B31" s="17"/>
       <c r="C31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E31" s="25">
-        <v>3</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>154</v>
+        <v>168</v>
+      </c>
+      <c r="D31" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B32" s="17" t="str">
-        <f>A$30</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f>A$31</f>
+        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="D32" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E32" s="25">
-        <v>3</v>
+        <v>1005</v>
+      </c>
+      <c r="E32" s="23">
+        <v>2</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2121,32 +2216,32 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B33" s="17" t="str">
-        <f t="shared" ref="B33:B34" si="3">A$30</f>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <f t="shared" ref="B14:B33" si="2">A$31</f>
+        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="D33" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E33" s="25">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E33" s="23">
+        <v>2</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2154,36 +2249,159 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
+        <v>73</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E34" s="25">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1005</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="17" t="str">
+        <f>A$34</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E35" s="25">
+        <v>3</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="17" t="str">
+        <f>A$34</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E36" s="25">
+        <v>3</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="17" t="str">
+        <f>A$34</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E37" s="25">
+        <v>3</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="17" t="str">
+        <f>A$34</f>
+        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E38" s="25">
+        <v>3</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC6875-5D97-D544-9833-AB7B29B4E1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F607A-62F0-1047-AE4E-41B86332AFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43640" yWindow="-6020" windowWidth="43440" windowHeight="22660" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="59780" yWindow="-6540" windowWidth="43440" windowHeight="22660" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="158">
   <si>
     <t>name</t>
   </si>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同步日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -267,9 +263,6 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</t>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -355,29 +348,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>file-protect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file-add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>868442e3-2bcf-4549-a1d1-20db042b07d0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b09c258a-d737-492a-8766-5092bcd31d4b</t>
-  </si>
-  <si>
-    <t>我的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各种审批</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -393,39 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>history</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9379b4cc-5f35-4231-9fcc-ec9fea60dea6</t>
-  </si>
-  <si>
-    <t>/workflow/open?name=process.file.management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/workflow/done?name=process.file.management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0a902f35-a4fd-425a-9a1a-c15bf3fa345f</t>
-  </si>
-  <si>
-    <t>078cf1cd-c89a-4a39-8744-ea351f6f96ca</t>
-  </si>
-  <si>
-    <t>/workflow/queue?name=process.file.management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>公告管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,33 +421,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建工单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理/审批工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>个人报表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ambient/category/zero.file.tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0ca01825-953f-46bc-ae27-9dae317a2b82</t>
-  </si>
-  <si>
     <t>平台应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,30 +551,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1f635e32-474d-4e93-b497-07063c9272ae</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework.workflow.file-w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework.workflow.file-w.open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework.workflow.file-w.approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework.workflow.file-w.done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework.workflow.file-my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>develop.report.designer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -673,10 +567,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/framework-workflow/file-my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>framework.data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -701,10 +591,6 @@
   </si>
   <si>
     <t>/framework-data/category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.data.file-tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1258,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1489,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>29</v>
@@ -1520,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>22</v>
@@ -1529,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$9</f>
@@ -1551,25 +1437,25 @@
         <v>2</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="14" t="s">
@@ -1582,22 +1468,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
@@ -1610,13 +1496,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>25</v>
@@ -1625,32 +1511,29 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="17" t="str">
-        <f>A$13</f>
-        <v>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E14" s="23">
-        <v>2</v>
+      <c r="D14" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1658,26 +1541,29 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f>A$14</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+      </c>
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
+      <c r="D15" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>25</v>
@@ -1688,11 +1574,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16" s="17" t="str">
         <f>A$15</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>26</v>
@@ -1700,20 +1586,20 @@
       <c r="D16" s="9">
         <v>1005</v>
       </c>
-      <c r="E16" s="2">
-        <v>2</v>
+      <c r="E16" s="25">
+        <v>3</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="H16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1724,29 +1610,29 @@
         <v>89</v>
       </c>
       <c r="B17" s="17" t="str">
-        <f>A$16</f>
-        <v>6ab0911e-be39-435a-a46c-da1a2aa52648</v>
+        <f>A$14</f>
+        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E17" s="25">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="H17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1754,32 +1640,32 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="str">
-        <f>A$15</f>
-        <v>868442e3-2bcf-4549-a1d1-20db042b07d0</v>
+        <f>A$17</f>
+        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D18" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>25</v>
+        <v>107</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1787,32 +1673,32 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="B19" s="17" t="str">
-        <f>A$18</f>
+        <f>A$17</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E19" s="25">
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1820,32 +1706,32 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" s="17" t="str">
-        <f>A$18</f>
+        <f t="shared" ref="B20:B21" si="0">A$17</f>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E20" s="25">
         <v>3</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1853,32 +1739,32 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="17" t="str">
-        <f t="shared" ref="B21:B22" si="0">A$18</f>
+        <f t="shared" si="0"/>
         <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E21" s="25">
         <v>3</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1886,522 +1772,333 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>d6470316-65ab-4fb3-9d2e-fcfb456259ba</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E22" s="25">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="B23" s="17" t="str">
+        <f>A$22</f>
+        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E23" s="26">
+        <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B24" s="17" t="str">
-        <f>A$23</f>
+        <f t="shared" ref="B24:B27" si="1">A$22</f>
         <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D24" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E24" s="26">
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B25" s="17" t="str">
-        <f t="shared" ref="B25:B28" si="1">A$23</f>
+        <f t="shared" si="1"/>
         <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D25" s="9">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E25" s="26">
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B26" s="17" t="str">
         <f t="shared" si="1"/>
         <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D26" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E26" s="26">
         <v>2</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B27" s="17" t="str">
         <f t="shared" si="1"/>
         <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D27" s="9">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E27" s="26">
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="26">
-        <v>2</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>156</v>
+        <v>115</v>
+      </c>
+      <c r="D28" s="6">
+        <v>80000</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>159</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>A$28</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+      </c>
       <c r="C29" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="6">
-        <v>80000</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E29" s="23">
+        <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>25</v>
+        <v>149</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="8" t="str">
-        <f>A$29</f>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B30" s="17"/>
       <c r="C30" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E30" s="23">
-        <v>2</v>
+        <v>146</v>
+      </c>
+      <c r="D30" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>178</v>
+        <v>152</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>A$30</f>
+        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
+      </c>
       <c r="C31" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>180</v>
+        <v>146</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="17" t="str">
-        <f>A$31</f>
+        <f t="shared" ref="B32" si="2">A$30</f>
         <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D32" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E32" s="23">
         <v>2</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="17" t="str">
-        <f t="shared" ref="B14:B33" si="2">A$31</f>
-        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E33" s="23">
-        <v>2</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1005</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="17" t="str">
-        <f>A$34</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E35" s="25">
-        <v>3</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="17" t="str">
-        <f>A$34</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E36" s="25">
-        <v>3</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="17" t="str">
-        <f>A$34</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E37" s="25">
-        <v>3</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="17" t="str">
-        <f>A$34</f>
-        <v>66c86ff3-39fe-4fbb-8bb4-8b8977b9745b</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E38" s="25">
-        <v>3</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F607A-62F0-1047-AE4E-41B86332AFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEC1A4-0E5C-2345-9F27-D9A4A85AD0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59780" yWindow="-6540" windowWidth="43440" windowHeight="22660" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -469,42 +469,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>develop.app.module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>database</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deployment-unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/application/module</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop.app.module-config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/application/module-config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>develop.app.menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,12 +496,6 @@
   </si>
   <si>
     <t>a8f56c74-4215-4e98-86bb-1293787d5db6</t>
-  </si>
-  <si>
-    <t>43dd6ee4-4f53-4177-9ad0-9ec9ae7704ca</t>
-  </si>
-  <si>
-    <t>b1488c53-5bdc-4775-be38-4f0c667319bb</t>
   </si>
   <si>
     <t>1d8d13dc-0efc-4190-a159-dcd70644da22</t>
@@ -1144,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD37"/>
+      <selection activeCell="A26" sqref="A25:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1772,7 +1734,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="14" t="s">
@@ -1799,7 +1761,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B23" s="17" t="str">
         <f>A$22</f>
@@ -1829,10 +1791,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B24" s="17" t="str">
-        <f t="shared" ref="B24:B27" si="1">A$22</f>
+        <f t="shared" ref="B24:B25" si="1">A$22</f>
         <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -1851,7 +1813,7 @@
         <v>122</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>124</v>
@@ -1859,7 +1821,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B25" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1869,16 +1831,16 @@
         <v>115</v>
       </c>
       <c r="D25" s="9">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="E25" s="26">
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>128</v>
@@ -1889,216 +1851,156 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E26" s="26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>130</v>
+      <c r="D26" s="6">
+        <v>80000</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>133</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>ab07e5df-94ac-43c0-a66d-55131627ee33</v>
+        <v>77</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f>A$26</f>
+        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E27" s="23">
         <v>2</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>134</v>
+      <c r="F27" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>137</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="14" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D28" s="6">
-        <v>80000</v>
+        <v>91000</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="8" t="str">
+        <v>67</v>
+      </c>
+      <c r="B29" s="17" t="str">
         <f>A$28</f>
-        <v>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</v>
+        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="16">
-        <v>1030</v>
+        <v>136</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1005</v>
       </c>
       <c r="E29" s="23">
         <v>2</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>147</v>
+      <c r="F29" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f t="shared" ref="B30" si="2">A$28</f>
+        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
+      </c>
       <c r="C30" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="17" t="str">
-        <f>A$30</f>
-        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E31" s="23">
-        <v>2</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="17" t="str">
-        <f t="shared" ref="B32" si="2">A$30</f>
-        <v>3fec80da-7c6c-4f8a-a73c-3d37994b8935</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E32" s="23">
-        <v>2</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="13"/>
+      <c r="I30" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
